--- a/data/trans_camb/P27A_9-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P27A_9-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 1,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 3,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 1,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 1,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 1,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 1,38</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-26,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>18,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-12,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-34,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-19,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-9,53%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-76,77; 125,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-55,22; 213,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-66,92; 125,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-79,85; 102,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-59,48; 52,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-54,96; 71,45</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,03</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,79</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 3,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 7,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 3,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 8,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 2,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,75; 6,39</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>88,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>293,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>111,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>247,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>100,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>270,52%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-77,48; 994,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-40,43; 2044,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-67,24; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-58,08; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-30,39; 501,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,45; 1214,17</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,96</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,02</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,59; 7,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,88; 6,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 6,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 2,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 4,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 3,28</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-10,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-29,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>26,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-5,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-4,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-24,76%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1027,12 +1223,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-89,09; 392,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 511,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1047,12 +1243,27 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-82,05; 245,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-88,41; 197,62</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 1,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 3,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 1,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 2,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 1,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 2,5</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-3,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>48,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>15,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>25,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>38,49%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-49,91; 129,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-24,69; 198,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-45,4; 156,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-50,36; 208,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-33,93; 84,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-18,21; 151,15</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
